--- a/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
+++ b/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/couse_information2011/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/PLPTH813Bioinformatis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855923EF-2AA8-464A-9944-713795CBF995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347D15D-FAC6-164C-B955-3CB86661DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6320" yWindow="460" windowWidth="36780" windowHeight="21440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <f>B2+7</f>
+        <f t="shared" ref="B4:B32" si="0">B2+7</f>
         <v>40576</v>
       </c>
       <c r="C4" s="2">
@@ -973,7 +973,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
-        <f>B3+7</f>
+        <f t="shared" si="0"/>
         <v>40578</v>
       </c>
       <c r="C5" s="2">
@@ -994,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f>B4+7</f>
+        <f t="shared" si="0"/>
         <v>40583</v>
       </c>
       <c r="C6" s="2">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
-        <f>B5+7</f>
+        <f t="shared" si="0"/>
         <v>40585</v>
       </c>
       <c r="C7" s="2">
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <f>B6+7</f>
+        <f t="shared" si="0"/>
         <v>40590</v>
       </c>
       <c r="C8" s="2">
@@ -1039,7 +1039,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
-        <f>B7+7</f>
+        <f t="shared" si="0"/>
         <v>40592</v>
       </c>
       <c r="C9" s="2">
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4">
-        <f>B8+7</f>
+        <f t="shared" si="0"/>
         <v>40597</v>
       </c>
       <c r="C10" s="2">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
-        <f>B9+7</f>
+        <f t="shared" si="0"/>
         <v>40599</v>
       </c>
       <c r="C11" s="2">
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="4">
-        <f>B10+7</f>
+        <f t="shared" si="0"/>
         <v>40604</v>
       </c>
       <c r="C12" s="2">
@@ -1106,7 +1106,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
-        <f>B11+7</f>
+        <f t="shared" si="0"/>
         <v>40606</v>
       </c>
       <c r="C13" s="9">
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="4">
-        <f>B12+7</f>
+        <f t="shared" si="0"/>
         <v>40611</v>
       </c>
       <c r="C14" s="2">
@@ -1141,7 +1141,7 @@
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12">
-        <f>B13+7</f>
+        <f t="shared" si="0"/>
         <v>40613</v>
       </c>
       <c r="C15" s="13">
@@ -1159,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="4">
-        <f>B14+7</f>
+        <f t="shared" si="0"/>
         <v>40618</v>
       </c>
       <c r="C16" s="2">
@@ -1172,7 +1172,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
-        <f>B15+7</f>
+        <f t="shared" si="0"/>
         <v>40620</v>
       </c>
       <c r="C17" s="9">
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4">
-        <f>B16+7</f>
+        <f t="shared" si="0"/>
         <v>40625</v>
       </c>
       <c r="C18" s="2">
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
-        <f>B17+7</f>
+        <f t="shared" si="0"/>
         <v>40627</v>
       </c>
       <c r="C19" s="2">
@@ -1224,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <f>B18+7</f>
+        <f t="shared" si="0"/>
         <v>40632</v>
       </c>
       <c r="C20" s="2">
@@ -1237,7 +1237,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
-        <f>B19+7</f>
+        <f t="shared" si="0"/>
         <v>40634</v>
       </c>
       <c r="C21" s="9">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="4">
-        <f>B20+7</f>
+        <f t="shared" si="0"/>
         <v>40639</v>
       </c>
       <c r="C22" s="2">
@@ -1274,7 +1274,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
-        <f>B21+7</f>
+        <f t="shared" si="0"/>
         <v>40641</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1291,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="4">
-        <f>B22+7</f>
+        <f t="shared" si="0"/>
         <v>40646</v>
       </c>
       <c r="C24" s="2">
@@ -1304,7 +1304,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
-        <f>B23+7</f>
+        <f t="shared" si="0"/>
         <v>40648</v>
       </c>
       <c r="C25" s="9">
@@ -1326,7 +1326,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4">
-        <f>B24+7</f>
+        <f t="shared" si="0"/>
         <v>40653</v>
       </c>
       <c r="C26" s="2">
@@ -1338,7 +1338,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
-        <f>B25+7</f>
+        <f t="shared" si="0"/>
         <v>40655</v>
       </c>
       <c r="C27" s="2">
@@ -1360,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="4">
-        <f>B26+7</f>
+        <f t="shared" si="0"/>
         <v>40660</v>
       </c>
       <c r="C28" s="2">
@@ -1375,7 +1375,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
-        <f>B27+7</f>
+        <f t="shared" si="0"/>
         <v>40662</v>
       </c>
       <c r="C29" s="2">
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="4">
-        <f>B28+7</f>
+        <f t="shared" si="0"/>
         <v>40667</v>
       </c>
       <c r="C30" s="2">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
-        <f>B29+7</f>
+        <f t="shared" si="0"/>
         <v>40669</v>
       </c>
       <c r="C31" s="2">
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="15">
-        <f>B30+7</f>
+        <f t="shared" si="0"/>
         <v>40674</v>
       </c>
       <c r="C32" s="16">

--- a/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
+++ b/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/PLPTH813Bioinformatis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347D15D-FAC6-164C-B955-3CB86661DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB28C279-2C86-A241-A318-D62D41D16C86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="460" windowWidth="36780" windowHeight="21440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="940" windowWidth="47520" windowHeight="26100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>week 1</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Text editor</t>
   </si>
   <si>
-    <t>Unix</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>phylogeny (Covid19)</t>
-  </si>
-  <si>
     <t>RNA-Seq (functional analysis)</t>
   </si>
   <si>
@@ -177,21 +171,9 @@
     <t>text editor and regular expression</t>
   </si>
   <si>
-    <t>unix</t>
-  </si>
-  <si>
-    <t>in-class project: construct a phygenetic tree</t>
-  </si>
-  <si>
     <t>NGS tools and BLAST alignment</t>
   </si>
   <si>
-    <t>homework, review</t>
-  </si>
-  <si>
-    <t>in-class project: QTL and GWAS</t>
-  </si>
-  <si>
     <t>Tools for data retrieval and submission</t>
   </si>
   <si>
@@ -234,18 +216,12 @@
     <t>HW06</t>
   </si>
   <si>
-    <t>HW07</t>
-  </si>
-  <si>
     <t>HW08</t>
   </si>
   <si>
     <t>HW09</t>
   </si>
   <si>
-    <t>HW10</t>
-  </si>
-  <si>
     <t>to-do:</t>
   </si>
   <si>
@@ -259,13 +235,53 @@
   </si>
   <si>
     <t>student 5 min presentation</t>
+  </si>
+  <si>
+    <t>Text editor + Unix</t>
+  </si>
+  <si>
+    <t>Unix + NGS technology</t>
+  </si>
+  <si>
+    <t>Unix + R</t>
+  </si>
+  <si>
+    <t>regular expression + Unix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>NGS tools</t>
+    </r>
+  </si>
+  <si>
+    <t>R and NGS tools</t>
+  </si>
+  <si>
+    <t>QTL and GWAS</t>
+  </si>
+  <si>
+    <t>in-class project: construct a phygenetic tree (Covid19)</t>
+  </si>
+  <si>
+    <t>phylogeny</t>
+  </si>
+  <si>
+    <t>no class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,8 +319,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,19 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -449,39 +470,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,105 +932,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="19"/>
+      <c r="D1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="26">
         <v>40569</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="26" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27">
         <f>B2+2</f>
         <v>40571</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="28">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="27">
         <f t="shared" ref="B4:B32" si="0">B2+7</f>
         <v>40576</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+      <c r="D4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27">
         <f t="shared" si="0"/>
         <v>40578</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="28">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="D5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>40583</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="28">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="26" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
@@ -1013,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1034,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1046,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1067,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1079,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1100,28 +1134,26 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>40606</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1134,60 +1166,64 @@
       <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12">
+      <c r="D14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>40613</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="18">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="21">
         <f t="shared" si="0"/>
         <v>40618</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="22">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>40620</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1201,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1231,28 +1267,27 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>40634</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="2">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1266,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1278,10 +1313,10 @@
         <v>40641</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1298,28 +1333,26 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>40648</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="7"/>
+      <c r="D25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1332,8 +1365,8 @@
       <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,14 +1378,14 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1367,10 +1400,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,13 +1415,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1403,7 +1433,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1415,44 +1445,44 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>40674</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>31</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
-        <v>71</v>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
+++ b/PLPTH813Bioinformatis/PLPTH813_schedule2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/PLPTH813Bioinformatis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB28C279-2C86-A241-A318-D62D41D16C86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D30C754-73B5-3148-9EA7-48474BE91A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="940" windowWidth="47520" windowHeight="26100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="940" windowWidth="47520" windowHeight="26100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>week 1</t>
   </si>
@@ -99,12 +99,6 @@
     <t>NGS tools</t>
   </si>
   <si>
-    <t>QTL_GWAS</t>
-  </si>
-  <si>
-    <t>microbiome</t>
-  </si>
-  <si>
     <t>Mid-term exam</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>alignment (principle and Blast)</t>
   </si>
   <si>
-    <t>alignment (short and long reads) and multiple alignments</t>
-  </si>
-  <si>
     <t>population genetics</t>
   </si>
   <si>
@@ -171,12 +162,6 @@
     <t>text editor and regular expression</t>
   </si>
   <si>
-    <t>NGS tools and BLAST alignment</t>
-  </si>
-  <si>
-    <t>Tools for data retrieval and submission</t>
-  </si>
-  <si>
     <t>Genome assembly (overview)</t>
   </si>
   <si>
@@ -249,39 +234,58 @@
     <t>regular expression + Unix</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R + </t>
-    </r>
+    <t>R and NGS tools</t>
+  </si>
+  <si>
+    <t>QTL and GWAS</t>
+  </si>
+  <si>
+    <t>in-class project: construct a phygenetic tree (Covid19)</t>
+  </si>
+  <si>
+    <t>phylogeny</t>
+  </si>
+  <si>
+    <t>no class</t>
+  </si>
+  <si>
+    <t>BLAST alignment</t>
+  </si>
+  <si>
+    <t>Microbiome</t>
+  </si>
+  <si>
+    <t>short-read alignment (short and long reads) and multiple alignments</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>NGS tools</t>
+      <t>QTL</t>
     </r>
-  </si>
-  <si>
-    <t>R and NGS tools</t>
-  </si>
-  <si>
-    <t>QTL and GWAS</t>
-  </si>
-  <si>
-    <t>in-class project: construct a phygenetic tree (Covid19)</t>
-  </si>
-  <si>
-    <t>phylogeny</t>
-  </si>
-  <si>
-    <t>no class</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_GWAS</t>
+    </r>
+  </si>
+  <si>
+    <t>Tools for data retrieval and submission (bedtools etc.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,11 +333,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -454,7 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,7 +502,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -915,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,7 +922,7 @@
     <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="52" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
@@ -932,128 +930,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>53</v>
+      <c r="B1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>40569</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26">
         <f>B2+2</f>
         <v>40571</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="26"/>
+      <c r="E3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <f t="shared" ref="B4:B32" si="0">B2+7</f>
         <v>40576</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
-        <v>55</v>
+      <c r="D4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26">
         <f t="shared" si="0"/>
         <v>40578</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="26"/>
+      <c r="D5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <f t="shared" si="0"/>
         <v>40583</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="B7" s="26">
         <f t="shared" si="0"/>
         <v>40585</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
+      <c r="E7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,10 +1081,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1113,13 +1111,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,14 +1143,14 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>75</v>
+      <c r="D13" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -1181,10 +1179,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1201,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1216,13 +1214,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,10 +1247,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1267,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1279,13 +1277,13 @@
         <v>22</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -1301,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1313,10 +1311,10 @@
         <v>40641</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1333,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,13 +1343,13 @@
         <v>24</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1366,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1378,14 +1376,14 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,10 +1398,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1415,10 +1413,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,7 +1431,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,10 +1443,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1463,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1474,15 +1472,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
